--- a/similarities/split_global/harmonic_similarity_timestamps_176.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_176.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,638 +484,686 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000'), ('0:01:27.680000', '0:01:38.020000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3'], ['E', 'A/3', 'E/5']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000'), ('0:00:47.176000', '0:00:53.016000')]</t>
+          <t>('0:01:01.760000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059'), ('0:00:02.470042', '0:00:09.607823')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=2.470042']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb/3', 'C:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:26.980000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:33.383000', '0:01:41.816000')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=93.383']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:19.520000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:42.100000')]</t>
+          <t>('0:01:03.840000', '0:01:07.540000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=19.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+          <t>('0:00:11.160000', '0:00:18.240000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:19.400000', '0:00:44.180000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=11.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:7/C']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'A:7']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:14.840000', '0:04:22.720000')]</t>
+          <t>('0:00:35.140000', '0:00:39.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:27.290000', '0:00:33.090000')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=27.29']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['D/5', 'A', 'G/2', 'D/5']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['G', 'D', 'C', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49', '0:00:56.800000')]</t>
+          <t>('0:01:02.291000', '0:01:06.637000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:27.640000')]</t>
+          <t>('0:00:34.169705', '0:00:38.767256')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=49.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=62.291</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=34.169705</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.580000', '0:00:26.260000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'G:min', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.755487', '0:00:19.945963')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49.160000', '0:01:07.802000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=7.755487']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=49.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:59.100000')]</t>
+          <t>('0:00:08.240000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.100000', '0:00:45.980000')]</t>
+          <t>('0:00:25.640000', '0:00:55.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:37.992880', '0:00:42.009932')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:15')]</t>
+          <t>('0:01:12.500000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=37.99288']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1124,58 +1172,58 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000'), ('0:01:27.200000', '0:01:37.220000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=87.2']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
